--- a/Data/EC/NIT-9005941373.xlsx
+++ b/Data/EC/NIT-9005941373.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46216530-6207-4BD1-B2D6-D4039B477A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9DF0CE-E593-49DE-A6C3-5212349C5004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E14A9098-F875-4458-9492-2C2DA1E8672E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE27BEF8-72D3-4BF6-91E1-4B25156E1714}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,69 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128044380</t>
+  </si>
+  <si>
+    <t>OMAR ALONSO VARGAS MORELO</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>1051888166</t>
+  </si>
+  <si>
+    <t>JORGE LUIS LAMADRID MEDINA</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>1047482816</t>
+  </si>
+  <si>
+    <t>DAMIAN PEREZ ACEVEDO</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>73008944</t>
+  </si>
+  <si>
+    <t>ELKIN RAFAEL SIERRA CARO</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>79417905</t>
+  </si>
+  <si>
+    <t>JUAN ALBERTO HOYOS CUARTAS</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1048460036</t>
+  </si>
+  <si>
+    <t>ROSANGELA CAROLINA ROMERO BURGOS</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>93355255</t>
+  </si>
+  <si>
+    <t>LEONEL TORRES</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
     <t>20090288</t>
   </si>
   <si>
@@ -74,22 +137,25 @@
     <t>1709</t>
   </si>
   <si>
-    <t>73008944</t>
-  </si>
-  <si>
-    <t>ELKIN RAFAEL SIERRA CARO</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>79417905</t>
-  </si>
-  <si>
-    <t>JUAN ALBERTO HOYOS CUARTAS</t>
-  </si>
-  <si>
-    <t>1905</t>
+    <t>1047409424</t>
+  </si>
+  <si>
+    <t>JULIETT PAOLA ANGULO BEJARANO</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1102839947</t>
+  </si>
+  <si>
+    <t>KARINA MARIA BELLO GOMEZCACERES</t>
+  </si>
+  <si>
+    <t>2102</t>
   </si>
   <si>
     <t>PE</t>
@@ -101,67 +167,25 @@
     <t>STEPHANYE PATRICIA PERDOMO SAER</t>
   </si>
   <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>93355255</t>
-  </si>
-  <si>
-    <t>LEONEL TORRES</t>
-  </si>
-  <si>
-    <t>1047409424</t>
-  </si>
-  <si>
-    <t>JULIETT PAOLA ANGULO BEJARANO</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
     <t>20255153</t>
   </si>
   <si>
-    <t>ROSANGELA CAROLINA ROMERO BURGOS</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
     <t>2004</t>
   </si>
   <si>
-    <t>1102839947</t>
-  </si>
-  <si>
-    <t>KARINA MARIA BELLO GOMEZCACERES</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>1047482816</t>
-  </si>
-  <si>
-    <t>DAMIAN PEREZ ACEVEDO</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
     <t>30578736</t>
   </si>
   <si>
     <t>OMAIRA ESTHER GUERRERO FLOREZ</t>
   </si>
   <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
     <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -575,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4F85D2-4CA8-FD88-91D8-8A8FBBBD567D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87264680-5D7F-F39D-3D2D-7BB2C524BA96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,8 +950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E226F74-51D3-481D-8F52-6E0A6754AD2A}">
-  <dimension ref="B2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C005667F-1996-4804-9FE5-16B1AD5A9C30}">
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -951,7 +975,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -996,7 +1020,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1028,12 +1052,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>481884</v>
+        <v>567382</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1044,17 +1068,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1081,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1104,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>58579</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1464490</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1127,10 +1151,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>28290</v>
+        <v>17556</v>
       </c>
       <c r="G17" s="18">
-        <v>848714</v>
+        <v>689455</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1150,10 +1174,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1161,22 +1185,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F19" s="18">
-        <v>37276</v>
+        <v>28290</v>
       </c>
       <c r="G19" s="18">
-        <v>931889</v>
+        <v>848714</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1187,19 +1211,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1219,7 +1243,7 @@
         <v>26</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>9363</v>
       </c>
       <c r="G21" s="18">
         <v>877803</v>
@@ -1239,13 +1263,13 @@
         <v>28</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F22" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G22" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1256,19 +1280,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F23" s="18">
-        <v>35112</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1279,19 +1303,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
       </c>
       <c r="G24" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1302,19 +1326,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1325,13 +1349,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F26" s="18">
         <v>13325</v>
@@ -1345,22 +1369,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>37276</v>
       </c>
       <c r="G27" s="18">
-        <v>1200000</v>
+        <v>931889</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1371,19 +1395,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F28" s="18">
-        <v>8667</v>
+        <v>35112</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1394,75 +1418,144 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="24">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G30" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="18">
         <v>34666</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G31" s="18">
         <v>1300000</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="24">
+        <v>8667</v>
+      </c>
+      <c r="G33" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="H38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="H39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005941373.xlsx
+++ b/Data/EC/NIT-9005941373.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9DF0CE-E593-49DE-A6C3-5212349C5004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C567A8-8AEA-43A3-8EF3-D40E1ED75C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE27BEF8-72D3-4BF6-91E1-4B25156E1714}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7AE3174C-12E5-4E27-B426-DE932AD3A5CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,22 +65,79 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1128044380</t>
-  </si>
-  <si>
-    <t>OMAR ALONSO VARGAS MORELO</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>1051888166</t>
-  </si>
-  <si>
-    <t>JORGE LUIS LAMADRID MEDINA</t>
-  </si>
-  <si>
-    <t>2009</t>
+    <t>20090288</t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES BLANCO TUIRAN</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>73008944</t>
+  </si>
+  <si>
+    <t>ELKIN RAFAEL SIERRA CARO</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>79417905</t>
+  </si>
+  <si>
+    <t>JUAN ALBERTO HOYOS CUARTAS</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>93355255</t>
+  </si>
+  <si>
+    <t>LEONEL TORRES</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>963298814051990</t>
+  </si>
+  <si>
+    <t>STEPHANYE PATRICIA PERDOMO SAER</t>
+  </si>
+  <si>
+    <t>1047409424</t>
+  </si>
+  <si>
+    <t>JULIETT PAOLA ANGULO BEJARANO</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>20255153</t>
+  </si>
+  <si>
+    <t>ROSANGELA CAROLINA ROMERO BURGOS</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>1102839947</t>
+  </si>
+  <si>
+    <t>KARINA MARIA BELLO GOMEZCACERES</t>
+  </si>
+  <si>
+    <t>2102</t>
   </si>
   <si>
     <t>1047482816</t>
@@ -90,102 +147,6 @@
   </si>
   <si>
     <t>2108</t>
-  </si>
-  <si>
-    <t>73008944</t>
-  </si>
-  <si>
-    <t>ELKIN RAFAEL SIERRA CARO</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>79417905</t>
-  </si>
-  <si>
-    <t>JUAN ALBERTO HOYOS CUARTAS</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1048460036</t>
-  </si>
-  <si>
-    <t>ROSANGELA CAROLINA ROMERO BURGOS</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>93355255</t>
-  </si>
-  <si>
-    <t>LEONEL TORRES</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>20090288</t>
-  </si>
-  <si>
-    <t>CARLOS ANDRES BLANCO TUIRAN</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1047409424</t>
-  </si>
-  <si>
-    <t>JULIETT PAOLA ANGULO BEJARANO</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1102839947</t>
-  </si>
-  <si>
-    <t>KARINA MARIA BELLO GOMEZCACERES</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>963298814051990</t>
-  </si>
-  <si>
-    <t>STEPHANYE PATRICIA PERDOMO SAER</t>
-  </si>
-  <si>
-    <t>20255153</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>30578736</t>
-  </si>
-  <si>
-    <t>OMAIRA ESTHER GUERRERO FLOREZ</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -284,7 +245,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -297,9 +260,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,23 +460,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,10 +504,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +560,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87264680-5D7F-F39D-3D2D-7BB2C524BA96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ACF7F4-DADC-5C94-3238-E0CA88B24B02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,8 +911,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C005667F-1996-4804-9FE5-16B1AD5A9C30}">
-  <dimension ref="B2:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95E92E7-7C83-41EE-9443-DA7F798C2C73}">
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -975,7 +936,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1020,7 +981,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1052,12 +1013,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>567382</v>
+        <v>386551</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1068,17 +1029,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F13" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1105,13 +1066,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1128,10 +1089,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>58579</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>1464490</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1151,10 +1112,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>17556</v>
+        <v>28290</v>
       </c>
       <c r="G17" s="18">
-        <v>689455</v>
+        <v>848714</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1174,10 +1135,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1197,10 +1158,10 @@
         <v>20</v>
       </c>
       <c r="F19" s="18">
-        <v>28290</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>848714</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1208,22 +1169,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>37276</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>931889</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1243,7 +1204,7 @@
         <v>26</v>
       </c>
       <c r="F21" s="18">
-        <v>9363</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
         <v>877803</v>
@@ -1263,13 +1224,13 @@
         <v>28</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F22" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1280,19 +1241,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1303,19 +1264,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1326,19 +1287,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1349,13 +1310,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F26" s="18">
         <v>13325</v>
@@ -1368,194 +1329,56 @@
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="18">
-        <v>37276</v>
-      </c>
-      <c r="G27" s="18">
-        <v>931889</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
+      <c r="B27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G28" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="C27" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G29" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="E27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G30" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="F27" s="24">
+        <v>36341</v>
+      </c>
+      <c r="G27" s="24">
+        <v>1200000</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="18">
-        <v>34666</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="24">
-        <v>8667</v>
-      </c>
-      <c r="G33" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="H38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="H39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005941373.xlsx
+++ b/Data/EC/NIT-9005941373.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C567A8-8AEA-43A3-8EF3-D40E1ED75C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1C94A0-98DF-4A91-900E-59F27057A4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7AE3174C-12E5-4E27-B426-DE932AD3A5CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A618473-BAEB-4724-B940-CDE02839A77F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -260,7 +258,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -454,29 +454,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,19 +495,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ACF7F4-DADC-5C94-3238-E0CA88B24B02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{815C6BE2-A0AF-AEC6-E91B-D5A53E21CDED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95E92E7-7C83-41EE-9443-DA7F798C2C73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284F6C71-0AB5-4CE6-991C-D1B3688AE4FD}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -934,49 +940,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -984,7 +990,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9005941373</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>386551</v>
       </c>
@@ -1085,18 +1091,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>29509</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>781242</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1108,18 +1114,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>28290</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>848714</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1131,18 +1137,18 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>33125</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>908526</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1154,18 +1160,18 @@
       <c r="D19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>33125</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>828116</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1177,18 +1183,18 @@
       <c r="D20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>37276</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>931889</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1200,18 +1206,18 @@
       <c r="D21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>35112</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>877803</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1223,18 +1229,18 @@
       <c r="D22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>35112</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>877803</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1246,18 +1252,18 @@
       <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>35112</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>877803</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1269,18 +1275,18 @@
       <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>35112</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>877803</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1292,18 +1298,18 @@
       <c r="D25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>35112</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>877803</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1315,47 +1321,47 @@
       <c r="D26" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>13325</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>908526</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="26">
         <v>36341</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="26">
         <v>1200000</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="34"/>
       <c r="H32" s="1" t="s">
         <v>46</v>
       </c>
@@ -1363,10 +1369,10 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="32"/>
+      <c r="C33" s="34"/>
       <c r="H33" s="1" t="s">
         <v>47</v>
       </c>
